--- a/mbs-perturbation/chatty/knn/chatty-knn-results.xlsx
+++ b/mbs-perturbation/chatty/knn/chatty-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8293478260869565</v>
+        <v>0.8163043478260871</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.6406926406926406</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491304347826087</v>
+        <v>0.4869565217391305</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8326086956521738</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.22</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4215384615384615</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E7" t="n">
-        <v>0.759223602484472</v>
+        <v>0.6887907020515717</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/knn/chatty-knn-results.xlsx
+++ b/mbs-perturbation/chatty/knn/chatty-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8163043478260871</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6406926406926406</v>
+        <v>0.6870192307692308</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4869565217391305</v>
+        <v>0.5879227053140097</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9975845410628019</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3873015873015874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6887907020515717</v>
+        <v>0.7345052954292084</v>
       </c>
     </row>
   </sheetData>
